--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1610.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1610.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.145565622217147</v>
+        <v>0.5493173599243164</v>
       </c>
       <c r="B1">
-        <v>2.322443957912626</v>
+        <v>1.107569336891174</v>
       </c>
       <c r="C1">
-        <v>4.928063897615884</v>
+        <v>5.272389888763428</v>
       </c>
       <c r="D1">
-        <v>2.439650524426305</v>
+        <v>4.129925727844238</v>
       </c>
       <c r="E1">
-        <v>1.077826871576166</v>
+        <v>0.8787401914596558</v>
       </c>
     </row>
   </sheetData>
